--- a/Projekthandbuch/Planungsdokumente/Offene_Punkteliste_Print_version.xlsx
+++ b/Projekthandbuch/Planungsdokumente/Offene_Punkteliste_Print_version.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i589151/repos/webengineering/Projekthandbuch/Planungsdokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{748F977E-F820-0044-9792-939521C283AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9307EC3A-B13B-E340-9E15-EF1D30164AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{64561343-4690-2045-B6FD-AF68561411C8}"/>
+    <workbookView xWindow="-69900" yWindow="-4260" windowWidth="28040" windowHeight="17440" xr2:uid="{64561343-4690-2045-B6FD-AF68561411C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_TYP5" localSheetId="0">'[1]OPL Vorlage'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$H$14</definedName>
     <definedName name="STATUS3" localSheetId="0">'[1]OPL Vorlage'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <r>
       <t>Spalte (F) Typ:</t>
@@ -274,9 +274,6 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>Design-Entwurf</t>
-  </si>
-  <si>
     <t>Matteo Kosina</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <t>2.3</t>
   </si>
   <si>
-    <t>Entscheidung, welche APIs verwendet werden sollen</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -344,6 +338,21 @@
   </si>
   <si>
     <t>Implementierung Landing-Page</t>
+  </si>
+  <si>
+    <t>Design-Entwurf + Entwurf des User-Flows</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Fragen an Röthig stellen</t>
+  </si>
+  <si>
+    <t>Fragen s. Protokoll 15.05.2024</t>
+  </si>
+  <si>
+    <t>Entscheidung, welche APIs verwendet werden</t>
   </si>
 </sst>
 </file>
@@ -479,78 +488,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_O-C-MM-0002_Rev00_Projektabwicklung" xfId="1" xr:uid="{0D088D41-BAE6-2948-9708-16CDC4AB9D3C}"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -588,6 +622,260 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -647,6 +935,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -685,11 +980,56 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -702,6 +1042,25 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -717,6 +1076,30 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="9" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -729,101 +1112,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1208,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF53706-4281-9549-B891-EEEB06A50BE7}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1226,401 +1514,445 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>45436</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16">
-        <v>45432</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="E4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15">
+        <v>45452</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="16">
-        <v>45452</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="16">
-        <v>45435</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="26">
+        <v>45439</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="15">
+        <v>45444</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="16">
-        <v>45444</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="16">
-        <v>45436</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="16">
-        <v>45452</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="16">
-        <v>45445</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="18" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="15">
+        <v>45452</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="15">
+        <v>45452</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="B11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="15">
+        <v>45452</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="15">
+        <v>45474</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="16">
-        <v>45452</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="16">
-        <v>45445</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>16</v>
+      <c r="H12" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="16">
-        <v>45452</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>34</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="19"/>
     </row>
-    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="15">
+        <v>45480</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="16">
-        <v>45474</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="16">
-        <v>45480</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="18" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C2 C4:C5">
-    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="UI">
+  <conditionalFormatting sqref="C1">
+    <cfRule type="containsText" dxfId="59" priority="56" operator="containsText" text="UI">
       <formula>NOT(ISERROR(SEARCH("UI",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="UI/PEI">
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="UI/PEI">
       <formula>NOT(ISERROR(SEARCH("UI/PEI",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="PEI">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="containsText" dxfId="56" priority="53" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="PEI">
       <formula>NOT(ISERROR(SEARCH("PEI",C1)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C1)))</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C2">
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C1)))</formula>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="containsText" dxfId="34" priority="60" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C4)))</formula>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>"erl"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="na">
+      <formula>NOT(ISERROR(SEARCH("na",H1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>"iB"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="ü">
+      <formula>NOT(ISERROR(SEARCH("ü",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C11">
-    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C7)))</formula>
+  <conditionalFormatting sqref="C2 C4:C5">
+    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="UI">
-      <formula>NOT(ISERROR(SEARCH("UI",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="UI/PEI">
-      <formula>NOT(ISERROR(SEARCH("UI/PEI",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="PEI">
-      <formula>NOT(ISERROR(SEARCH("PEI",C13)))</formula>
+  <conditionalFormatting sqref="C2 C4:C5">
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G4 G6 G12">
-    <cfRule type="containsText" dxfId="6" priority="32" operator="containsText" text="A">
-      <formula>NOT(ISERROR(SEARCH("A",G1)))</formula>
+  <conditionalFormatting sqref="C8:C12">
+    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G4">
-    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
+  <conditionalFormatting sqref="C14">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="UI">
+      <formula>NOT(ISERROR(SEARCH("UI",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="UI/PEI">
+      <formula>NOT(ISERROR(SEARCH("UI/PEI",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="PEI">
+      <formula>NOT(ISERROR(SEARCH("PEI",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5 G7 G13">
+    <cfRule type="containsText" dxfId="6" priority="28" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G5">
+    <cfRule type="cellIs" dxfId="5" priority="27" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G12">
+  <conditionalFormatting sqref="G7 G13">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H13">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="ü">
-      <formula>NOT(ISERROR(SEARCH("ü",H1)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="H2:H14">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="ü">
+      <formula>NOT(ISERROR(SEARCH("ü",H2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"iB"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="na">
-      <formula>NOT(ISERROR(SEARCH("na",H1)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="na">
+      <formula>NOT(ISERROR(SEARCH("na",H2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"erl"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G11 G13 G5" xr:uid="{2D9A773B-DAA1-C844-BAD0-BE644F520BF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G12 G14 G5" xr:uid="{AEE9D939-B7B9-F748-9DDC-7AC468101C13}">
       <formula1>$N$3:$N$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H6 H12" xr:uid="{A255E50E-8083-B74B-9F5C-E91F90C85459}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H7 H13" xr:uid="{AA0416CE-D856-8243-866E-4832768646A0}">
       <formula1>STATUS3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H11 H13 H4:H5" xr:uid="{7AB57A18-4FCC-3345-B96D-D7F63347B6CE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12 H4:H6 H14" xr:uid="{BC33574F-AE7B-514E-ADAA-4BFD0CBC0562}">
       <formula1>$O$3:$O$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G4 G6 G12" xr:uid="{744BBB91-ABBF-5D47-95AD-AF4C04954BDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G5 G7 G13" xr:uid="{1348C97E-7647-3640-99EE-5CDC9408032A}">
       <formula1>_TYP5</formula1>
     </dataValidation>
   </dataValidations>
